--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCD/15/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCD/15/seed2/result_data_KNN.xlsx
@@ -468,7 +468,7 @@
         <v>3.8</v>
       </c>
       <c r="C2" t="n">
-        <v>-12.346</v>
+        <v>-12.406</v>
       </c>
       <c r="D2" t="n">
         <v>-8.220000000000001</v>
@@ -482,7 +482,7 @@
         <v>-21.67</v>
       </c>
       <c r="B3" t="n">
-        <v>6.012</v>
+        <v>6.701000000000001</v>
       </c>
       <c r="C3" t="n">
         <v>-9.76</v>
@@ -519,10 +519,10 @@
         <v>4.35</v>
       </c>
       <c r="C5" t="n">
-        <v>-13.3</v>
+        <v>-13.066</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.762</v>
+        <v>-8.021000000000001</v>
       </c>
       <c r="E5" t="n">
         <v>9.970000000000001</v>
@@ -590,7 +590,7 @@
         <v>-13.02</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.825999999999999</v>
+        <v>-7.634</v>
       </c>
       <c r="E9" t="n">
         <v>12.31</v>
@@ -624,7 +624,7 @@
         <v>-13.87</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.422000000000001</v>
+        <v>-8.25</v>
       </c>
       <c r="E11" t="n">
         <v>13.91</v>
@@ -669,7 +669,7 @@
         <v>-20.07</v>
       </c>
       <c r="B14" t="n">
-        <v>7.7</v>
+        <v>6.449</v>
       </c>
       <c r="C14" t="n">
         <v>-11.89</v>
@@ -788,13 +788,13 @@
         <v>-21.82</v>
       </c>
       <c r="B21" t="n">
-        <v>6.698</v>
+        <v>6.054</v>
       </c>
       <c r="C21" t="n">
         <v>-12.06</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.928</v>
+        <v>-7.775999999999999</v>
       </c>
       <c r="E21" t="n">
         <v>13.76</v>
@@ -822,7 +822,7 @@
         <v>-20.86</v>
       </c>
       <c r="B23" t="n">
-        <v>7.140000000000001</v>
+        <v>6.444</v>
       </c>
       <c r="C23" t="n">
         <v>-10.59</v>
@@ -856,7 +856,7 @@
         <v>-21.66</v>
       </c>
       <c r="B25" t="n">
-        <v>5.85</v>
+        <v>6.103999999999999</v>
       </c>
       <c r="C25" t="n">
         <v>-14.32</v>
